--- a/Excel/airevolutionx.xlsx
+++ b/Excel/airevolutionx.xlsx
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6dtuGyksOIM</t>
+          <t>xnkLv-PJVMo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI ROBOTS Are Becoming TOO REAL! - Shock</t>
+          <t>This New AI Generates Videos Better Than Reality - OpenAI is Panicking Right Now!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2925542</v>
+        <v>576692</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1:08:58</t>
+          <t>0:08:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DfLVNMqQX9g</t>
+          <t>s15tJLd6V1c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Shocking AI Reveals That Stunned CES</t>
+          <t>AI Shocks Again: DeepMind V2A, AI BRAIN, OpenAI Nuclear AI, GPT-5 &amp; More (June Monthly News)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>974923</v>
+        <v>391184</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:10:47</t>
+          <t>2:08:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UvpIrxolWGs</t>
+          <t>SzzVzTvqrIc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Google Maps is AI Now!</t>
+          <t>OpenAI's New SearchGPT Shakes Up the Industry, Google Stock CRASHES!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-11-18</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>946505</v>
+        <v>356448</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:05:00</t>
+          <t>0:10:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pN17MOfhZJk</t>
+          <t>tAGQY9_2Heo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DeepSeek Just CRUSHED Big Tech AGAIN Wit</t>
+          <t>OpenAI CEO Sam Altman Reveals Shocking GPT-5 Details + OpenAI Academy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>932233</v>
+        <v>343888</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:13:56</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AoKm1-Ogsjw</t>
+          <t>wHxZoce5l6w</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AI Shocks the World: Synthetic Humans, N</t>
+          <t>AI Shocks the World: OpenAI OPERATOR, First AGI, Iron, AI Agents, Gemini 1114… (November News)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>800269</v>
+        <v>294183</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2:25:04</t>
+          <t>3:28:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DjjIZnM3jGo</t>
+          <t>nJjuYTpHQEE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Microsoft COPILOT - Your New AI Best Fri</t>
+          <t>AI World War 1 Just Began: SHOCKING New AI (Tülu 3) Destroys DeepSeek &amp; OpenAI!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>711972</v>
+        <v>279555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:09:05</t>
+          <t>0:10:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>os3LUc11tos</t>
+          <t>s0paX0gUws0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Humane AI Pin is Finally Here: The AI De</t>
+          <t>Gemini: Google's Final Answer to OpenAI's ChatGPT Supremacy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>587947</v>
+        <v>259190</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:08:17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gwEuvrI4fx4</t>
+          <t>yXtdCwutmdc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gemini: Google's Latest AI Challenging G</t>
+          <t>AI Shocks Again: DeepSeek R2, Grok 3, OpenAI GPT 4.5, Helix Humanoid, Tülu 3... (February AI News)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>579738</v>
+        <v>241740</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:08:13</t>
+          <t>1:37:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9cXM49Iu6lM</t>
+          <t>ze2N7seOKbk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New AI Robot with Human Brain Shocks the</t>
+          <t>AMECA, the GPT-4 AI Robot, Gets UPGRADED + Launch of OpenAI's First Robot - NEO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>579259</v>
+        <v>222171</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:08:21</t>
+          <t>0:08:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>xnkLv-PJVMo</t>
+          <t>VXmineqN4Gc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>This New AI Generates Videos Better Than</t>
+          <t>OpenAI Finally Announces the Arrival of the Groundbreaking GPT-5!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>555827</v>
+        <v>216100</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:08:02</t>
+          <t>0:05:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
